--- a/livrables/Suivi de projet.xlsx
+++ b/livrables/Suivi de projet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MLepelletier\Documents\GitHub\THEATRE_DMX\livrables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adherbomez\Documents\GitHub\THEATRE_DMX\livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,8 +16,8 @@
   </sheets>
   <definedNames>
     <definedName name="IndicateurPourcent">#REF!</definedName>
-    <definedName name="ListeCatégorie">Installation!$B$5:$B$50</definedName>
-    <definedName name="ListeEmployés">Installation!$C$5:$C$50</definedName>
+    <definedName name="ListeCatégorie">Installation!$B$5:$B$96</definedName>
+    <definedName name="ListeEmployés">Installation!$C$5:$C$96</definedName>
     <definedName name="TitreColonne1">#REF!</definedName>
     <definedName name="TitreColonne2">TableauCatégorieetEmployé[[#Headers],[heure n°]]</definedName>
   </definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="25">
   <si>
     <t>heure n°</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>etude des classes SQL</t>
+  </si>
+  <si>
+    <t>diagramme de sequence(c++)</t>
+  </si>
+  <si>
+    <t>diagramme de séquence bdd</t>
+  </si>
+  <si>
+    <t>diagramme de séquence(PHP)</t>
+  </si>
+  <si>
+    <t>découverte matériel</t>
+  </si>
+  <si>
+    <t>création des classes</t>
+  </si>
+  <si>
+    <t>création de la bdd</t>
   </si>
 </sst>
 </file>
@@ -553,8 +571,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableauCatégorieetEmployé" displayName="TableauCatégorieetEmployé" ref="B4:E50" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4" headerRowCellStyle="Titre 2" dataCellStyle="Texte">
-  <autoFilter ref="B4:E50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableauCatégorieetEmployé" displayName="TableauCatégorieetEmployé" ref="B4:E96" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4" headerRowCellStyle="Titre 2" dataCellStyle="Texte">
+  <autoFilter ref="B4:E96"/>
   <tableColumns count="4">
     <tableColumn id="1" name="heure n°" dataDxfId="3" dataCellStyle="Texte"/>
     <tableColumn id="2" name="Arthur Dherbomez" dataDxfId="2" dataCellStyle="Texte"/>
@@ -796,11 +814,11 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E50"/>
+  <dimension ref="B1:E96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="4" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1327,89 +1345,607 @@
       <c r="B40" s="2">
         <v>36</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>37</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>38</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>39</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>40</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>41</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>42</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>43</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>44</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>45</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>46</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>47</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>48</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>49</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>50</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>51</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>52</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>53</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>54</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>55</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>56</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>57</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>58</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>59</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>60</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>61</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>62</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>63</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>64</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>65</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <v>66</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>67</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2">
+        <v>68</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2">
+        <v>69</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2">
+        <v>70</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2">
+        <v>71</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="2">
+        <v>72</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="2">
+        <v>73</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <v>74</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <v>75</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <v>76</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <v>77</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="2">
+        <v>78</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
+        <v>79</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="2">
+        <v>80</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="2">
+        <v>81</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2">
+        <v>82</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2">
+        <v>83</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2">
+        <v>84</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="2">
+        <v>85</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="2">
+        <v>86</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="2">
+        <v>87</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="2">
+        <v>88</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="2">
+        <v>89</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="2">
+        <v>90</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="2">
+        <v>91</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="2">
+        <v>92</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
     </row>
   </sheetData>
   <dataValidations xWindow="390" yWindow="668" count="3">

--- a/livrables/Suivi de projet.xlsx
+++ b/livrables/Suivi de projet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="27">
   <si>
     <t>heure n°</t>
   </si>
@@ -97,10 +97,16 @@
     <t>découverte matériel</t>
   </si>
   <si>
-    <t>création des classes</t>
-  </si>
-  <si>
     <t>création de la bdd</t>
+  </si>
+  <si>
+    <t>définition des classes</t>
+  </si>
+  <si>
+    <t>étude physique</t>
+  </si>
+  <si>
+    <t>définition de la bdd</t>
   </si>
 </sst>
 </file>
@@ -817,8 +823,8 @@
   <dimension ref="B1:E96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
+      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1556,13 +1562,13 @@
         <v>51</v>
       </c>
       <c r="C55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E55" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1570,13 +1576,13 @@
         <v>52</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E56" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1584,13 +1590,13 @@
         <v>53</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E57" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,13 +1604,13 @@
         <v>54</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E58" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1612,13 +1618,13 @@
         <v>55</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E59" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1626,13 +1632,13 @@
         <v>56</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E60" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1640,13 +1646,13 @@
         <v>57</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E61" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1654,13 +1660,13 @@
         <v>58</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E62" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1668,13 +1674,13 @@
         <v>59</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E63" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1682,78 +1688,126 @@
         <v>60</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>61</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>62</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>63</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>64</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+      <c r="C68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>65</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="C69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>66</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>67</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="C71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>68</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="C72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2">

--- a/livrables/Suivi de projet.xlsx
+++ b/livrables/Suivi de projet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
   <si>
     <t>heure n°</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>définition de la bdd</t>
+  </si>
+  <si>
+    <t>implémentation des classes</t>
   </si>
 </sst>
 </file>
@@ -823,8 +826,8 @@
   <dimension ref="B1:E96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1813,7 +1816,9 @@
       <c r="B73" s="2">
         <v>69</v>
       </c>
-      <c r="C73" s="6"/>
+      <c r="C73" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
@@ -1821,7 +1826,9 @@
       <c r="B74" s="2">
         <v>70</v>
       </c>
-      <c r="C74" s="6"/>
+      <c r="C74" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
@@ -1829,7 +1836,9 @@
       <c r="B75" s="2">
         <v>71</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
@@ -1837,7 +1846,9 @@
       <c r="B76" s="2">
         <v>72</v>
       </c>
-      <c r="C76" s="6"/>
+      <c r="C76" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
@@ -1845,7 +1856,9 @@
       <c r="B77" s="2">
         <v>73</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
@@ -1853,7 +1866,9 @@
       <c r="B78" s="2">
         <v>74</v>
       </c>
-      <c r="C78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
@@ -1861,7 +1876,9 @@
       <c r="B79" s="2">
         <v>75</v>
       </c>
-      <c r="C79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
@@ -1869,7 +1886,9 @@
       <c r="B80" s="2">
         <v>76</v>
       </c>
-      <c r="C80" s="6"/>
+      <c r="C80" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
@@ -1877,7 +1896,9 @@
       <c r="B81" s="2">
         <v>77</v>
       </c>
-      <c r="C81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
@@ -1885,7 +1906,9 @@
       <c r="B82" s="2">
         <v>78</v>
       </c>
-      <c r="C82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
@@ -1893,7 +1916,9 @@
       <c r="B83" s="2">
         <v>79</v>
       </c>
-      <c r="C83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
     </row>
@@ -1901,7 +1926,9 @@
       <c r="B84" s="2">
         <v>80</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
@@ -1909,7 +1936,9 @@
       <c r="B85" s="2">
         <v>81</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>

--- a/livrables/Suivi de projet.xlsx
+++ b/livrables/Suivi de projet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27230"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adherbomez\Documents\GitHub\THEATRE_DMX\livrables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Installation" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <definedName name="TitreColonne1">#REF!</definedName>
     <definedName name="TitreColonne2">TableauCatégorieetEmployé[[#Headers],[heure n°]]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="31">
   <si>
     <t>heure n°</t>
   </si>
@@ -110,12 +118,21 @@
   </si>
   <si>
     <t>implémentation des classes</t>
+  </si>
+  <si>
+    <t>etude physique du système</t>
+  </si>
+  <si>
+    <t>etude de la carte USB DMX</t>
+  </si>
+  <si>
+    <t>test pour l'envoi d'une trame</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
@@ -361,7 +378,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,18 +401,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Colonne grise" xfId="14"/>
+    <cellStyle name="Commentaire" xfId="7" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Date" xfId="8"/>
     <cellStyle name="Début réel" xfId="13"/>
     <cellStyle name="Durée estimée" xfId="15"/>
     <cellStyle name="Entrée" xfId="2" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Indicateur" xfId="12"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="7" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Numéros" xfId="4"/>
     <cellStyle name="Sortie" xfId="3" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte" xfId="5"/>
@@ -819,34 +839,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:E96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94:C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -860,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -874,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -888,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -902,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -916,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -930,7 +950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -944,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -958,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -972,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -986,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1000,7 +1020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1014,7 +1034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -1028,7 +1048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -1042,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -1056,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -1070,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -1084,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -1098,7 +1118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -1112,7 +1132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -1126,7 +1146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -1140,7 +1160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -1154,7 +1174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -1168,7 +1188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -1182,7 +1202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -1196,7 +1216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -1210,7 +1230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -1224,7 +1244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -1238,7 +1258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -1252,7 +1272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -1266,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -1280,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -1294,7 +1314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -1308,7 +1328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -1322,7 +1342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -1336,7 +1356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -1350,7 +1370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>36</v>
       </c>
@@ -1364,7 +1384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>37</v>
       </c>
@@ -1378,7 +1398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>38</v>
       </c>
@@ -1392,7 +1412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>39</v>
       </c>
@@ -1406,7 +1426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>40</v>
       </c>
@@ -1420,7 +1440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>41</v>
       </c>
@@ -1434,7 +1454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>42</v>
       </c>
@@ -1448,7 +1468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>43</v>
       </c>
@@ -1462,7 +1482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>44</v>
       </c>
@@ -1476,7 +1496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>45</v>
       </c>
@@ -1490,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>46</v>
       </c>
@@ -1504,7 +1524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>47</v>
       </c>
@@ -1518,7 +1538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>48</v>
       </c>
@@ -1532,7 +1552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>49</v>
       </c>
@@ -1546,7 +1566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>50</v>
       </c>
@@ -1560,7 +1580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>51</v>
       </c>
@@ -1574,7 +1594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>52</v>
       </c>
@@ -1588,7 +1608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>53</v>
       </c>
@@ -1602,7 +1622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>54</v>
       </c>
@@ -1616,7 +1636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>55</v>
       </c>
@@ -1630,7 +1650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>56</v>
       </c>
@@ -1644,7 +1664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <v>57</v>
       </c>
@@ -1658,7 +1678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <v>58</v>
       </c>
@@ -1672,7 +1692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <v>59</v>
       </c>
@@ -1686,7 +1706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
         <v>60</v>
       </c>
@@ -1700,7 +1720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
         <v>61</v>
       </c>
@@ -1714,7 +1734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
         <v>62</v>
       </c>
@@ -1728,7 +1748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
         <v>63</v>
       </c>
@@ -1742,7 +1762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
         <v>64</v>
       </c>
@@ -1756,7 +1776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
         <v>65</v>
       </c>
@@ -1770,7 +1790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2">
         <v>66</v>
       </c>
@@ -1784,7 +1804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2">
         <v>67</v>
       </c>
@@ -1798,7 +1818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2">
         <v>68</v>
       </c>
@@ -1812,7 +1832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2">
         <v>69</v>
       </c>
@@ -1822,7 +1842,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2">
         <v>70</v>
       </c>
@@ -1832,7 +1852,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2">
         <v>71</v>
       </c>
@@ -1842,7 +1862,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2">
         <v>72</v>
       </c>
@@ -1852,7 +1872,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2">
         <v>73</v>
       </c>
@@ -1862,7 +1882,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2">
         <v>74</v>
       </c>
@@ -1872,7 +1892,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2">
         <v>75</v>
       </c>
@@ -1882,7 +1902,7 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2">
         <v>76</v>
       </c>
@@ -1892,7 +1912,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2">
         <v>77</v>
       </c>
@@ -1902,7 +1922,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2">
         <v>78</v>
       </c>
@@ -1912,7 +1932,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2">
         <v>79</v>
       </c>
@@ -1922,7 +1942,7 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2">
         <v>80</v>
       </c>
@@ -1932,7 +1952,7 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2">
         <v>81</v>
       </c>
@@ -1942,87 +1962,107 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2">
         <v>82</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2">
         <v>83</v>
       </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2">
         <v>84</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2">
         <v>85</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2">
         <v>86</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2">
         <v>87</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2">
         <v>88</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2">
         <v>89</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2">
         <v>90</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="2">
         <v>91</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2">
         <v>92</v>
       </c>

--- a/livrables/Suivi de projet.xlsx
+++ b/livrables/Suivi de projet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adherbomez\Documents\GitHub\THEATRE_DMX\livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,15 +16,15 @@
   </sheets>
   <definedNames>
     <definedName name="IndicateurPourcent">#REF!</definedName>
-    <definedName name="ListeCatégorie">Installation!$B$5:$B$96</definedName>
-    <definedName name="ListeEmployés">Installation!$C$5:$C$96</definedName>
+    <definedName name="ListeCatégorie">Installation!$B$5:$B$180</definedName>
+    <definedName name="ListeEmployés">Installation!$C$5:$C$180</definedName>
     <definedName name="TitreColonne1">#REF!</definedName>
     <definedName name="TitreColonne2">TableauCatégorieetEmployé[[#Headers],[heure n°]]</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="33">
   <si>
     <t>heure n°</t>
   </si>
@@ -127,12 +127,18 @@
   </si>
   <si>
     <t>test pour l'envoi d'une trame</t>
+  </si>
+  <si>
+    <t>test de reception pour serveur TCP</t>
+  </si>
+  <si>
+    <t>finalisation du TCPServeur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
@@ -409,13 +415,13 @@
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Colonne grise" xfId="14"/>
-    <cellStyle name="Commentaire" xfId="7" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Date" xfId="8"/>
     <cellStyle name="Début réel" xfId="13"/>
     <cellStyle name="Durée estimée" xfId="15"/>
     <cellStyle name="Entrée" xfId="2" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Indicateur" xfId="12"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="7" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Numéros" xfId="4"/>
     <cellStyle name="Sortie" xfId="3" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte" xfId="5"/>
@@ -600,8 +606,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableauCatégorieetEmployé" displayName="TableauCatégorieetEmployé" ref="B4:E96" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4" headerRowCellStyle="Titre 2" dataCellStyle="Texte">
-  <autoFilter ref="B4:E96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableauCatégorieetEmployé" displayName="TableauCatégorieetEmployé" ref="B4:E180" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4" headerRowCellStyle="Titre 2" dataCellStyle="Texte">
+  <autoFilter ref="B4:E180"/>
   <tableColumns count="4">
     <tableColumn id="1" name="heure n°" dataDxfId="3" dataCellStyle="Texte"/>
     <tableColumn id="2" name="Arthur Dherbomez" dataDxfId="2" dataCellStyle="Texte"/>
@@ -839,34 +845,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E96"/>
+  <dimension ref="B1:E180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94:C95"/>
+      <pane ySplit="4" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100:C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -880,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -894,7 +900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -908,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -922,7 +928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -936,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -950,7 +956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -964,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -978,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -992,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>36</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>37</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>38</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>39</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>40</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>41</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>42</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>43</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>44</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>45</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>46</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>47</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>48</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>49</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>50</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>51</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>52</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>53</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>54</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>55</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>56</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>57</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>58</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>59</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>60</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>61</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>62</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>63</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>64</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>65</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>66</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>67</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>68</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>69</v>
       </c>
@@ -1842,7 +1848,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>70</v>
       </c>
@@ -1852,7 +1858,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>71</v>
       </c>
@@ -1862,7 +1868,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>72</v>
       </c>
@@ -1872,7 +1878,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>73</v>
       </c>
@@ -1882,7 +1888,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>74</v>
       </c>
@@ -1892,7 +1898,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>75</v>
       </c>
@@ -1902,7 +1908,7 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>76</v>
       </c>
@@ -1912,7 +1918,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>77</v>
       </c>
@@ -1922,7 +1928,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>78</v>
       </c>
@@ -1932,7 +1938,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>79</v>
       </c>
@@ -1942,7 +1948,7 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>80</v>
       </c>
@@ -1952,7 +1958,7 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>81</v>
       </c>
@@ -1962,7 +1968,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>82</v>
       </c>
@@ -1972,7 +1978,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>83</v>
       </c>
@@ -1982,7 +1988,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>84</v>
       </c>
@@ -1992,7 +1998,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>85</v>
       </c>
@@ -2002,7 +2008,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>86</v>
       </c>
@@ -2012,7 +2018,7 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>87</v>
       </c>
@@ -2022,7 +2028,7 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>88</v>
       </c>
@@ -2032,7 +2038,7 @@
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>89</v>
       </c>
@@ -2042,7 +2048,7 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2">
         <v>90</v>
       </c>
@@ -2052,7 +2058,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
         <v>91</v>
       </c>
@@ -2062,13 +2068,709 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>92</v>
       </c>
-      <c r="C96" s="6"/>
+      <c r="C96" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2">
+        <v>93</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
+        <v>94</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2">
+        <v>95</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="2">
+        <v>96</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
+        <v>97</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="2">
+        <v>98</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="2">
+        <v>99</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="2">
+        <v>100</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="2">
+        <v>101</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="2">
+        <v>102</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="2">
+        <v>103</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="2">
+        <v>104</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="2">
+        <v>105</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="2">
+        <v>106</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="2">
+        <v>107</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="2">
+        <v>108</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="2">
+        <v>109</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="2">
+        <v>110</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="2">
+        <v>111</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="2">
+        <v>112</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="2">
+        <v>113</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="2">
+        <v>114</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="2">
+        <v>115</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="2">
+        <v>116</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="2">
+        <v>117</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="2">
+        <v>118</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="2">
+        <v>119</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="2">
+        <v>120</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="2">
+        <v>121</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="2">
+        <v>122</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="2">
+        <v>123</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="2">
+        <v>124</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="2">
+        <v>125</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="2">
+        <v>126</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="2">
+        <v>127</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="2">
+        <v>128</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="2">
+        <v>129</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="2">
+        <v>130</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="2">
+        <v>131</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="2">
+        <v>132</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="2">
+        <v>133</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="2">
+        <v>134</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="2">
+        <v>135</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="2">
+        <v>136</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="2">
+        <v>137</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="2">
+        <v>138</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="2">
+        <v>139</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="2">
+        <v>140</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="2">
+        <v>141</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="2">
+        <v>142</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="2">
+        <v>143</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="2">
+        <v>144</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="2">
+        <v>145</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="2">
+        <v>146</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="2">
+        <v>147</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="2">
+        <v>148</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="2">
+        <v>149</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="2">
+        <v>150</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="2">
+        <v>151</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="2">
+        <v>152</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="2">
+        <v>153</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="2">
+        <v>154</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="2">
+        <v>155</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="2">
+        <v>156</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="2">
+        <v>157</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="2">
+        <v>158</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="2">
+        <v>159</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="2">
+        <v>160</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="2">
+        <v>161</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="2">
+        <v>162</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+    </row>
+    <row r="167" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="2">
+        <v>163</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="2">
+        <v>164</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="2">
+        <v>165</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+    </row>
+    <row r="170" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="2">
+        <v>166</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="2">
+        <v>167</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="2">
+        <v>168</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="2">
+        <v>169</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="2">
+        <v>170</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="2">
+        <v>171</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="2">
+        <v>172</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="2">
+        <v>173</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="2">
+        <v>174</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="2">
+        <v>175</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="2">
+        <v>176</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
     </row>
   </sheetData>
   <dataValidations xWindow="390" yWindow="668" count="3">

--- a/livrables/Suivi de projet.xlsx
+++ b/livrables/Suivi de projet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MLepelletier\Documents\GitHub\THEATRE_DMX\livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,15 +16,15 @@
   </sheets>
   <definedNames>
     <definedName name="IndicateurPourcent">#REF!</definedName>
-    <definedName name="ListeCatégorie">Installation!$B$5:$B$96</definedName>
-    <definedName name="ListeEmployés">Installation!$C$5:$C$96</definedName>
+    <definedName name="ListeCatégorie">Installation!$B$5:$B$120</definedName>
+    <definedName name="ListeEmployés">Installation!$C$5:$C$120</definedName>
     <definedName name="TitreColonne1">#REF!</definedName>
     <definedName name="TitreColonne2">TableauCatégorieetEmployé[[#Headers],[heure n°]]</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="37">
   <si>
     <t>heure n°</t>
   </si>
@@ -127,12 +127,30 @@
   </si>
   <si>
     <t>test pour l'envoi d'une trame</t>
+  </si>
+  <si>
+    <t>implementation de la classe programme</t>
+  </si>
+  <si>
+    <t>ajout de la classe TCP-IP</t>
+  </si>
+  <si>
+    <t>etude des lumieres+protocole DMX</t>
+  </si>
+  <si>
+    <t>création de fonction générant l'ihm</t>
+  </si>
+  <si>
+    <t>preparation des modules de test</t>
+  </si>
+  <si>
+    <t>implementation de la classe BDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
@@ -409,13 +427,13 @@
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Colonne grise" xfId="14"/>
-    <cellStyle name="Commentaire" xfId="7" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Date" xfId="8"/>
     <cellStyle name="Début réel" xfId="13"/>
     <cellStyle name="Durée estimée" xfId="15"/>
     <cellStyle name="Entrée" xfId="2" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Indicateur" xfId="12"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="7" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Numéros" xfId="4"/>
     <cellStyle name="Sortie" xfId="3" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte" xfId="5"/>
@@ -600,8 +618,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableauCatégorieetEmployé" displayName="TableauCatégorieetEmployé" ref="B4:E96" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4" headerRowCellStyle="Titre 2" dataCellStyle="Texte">
-  <autoFilter ref="B4:E96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableauCatégorieetEmployé" displayName="TableauCatégorieetEmployé" ref="B4:E120" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4" headerRowCellStyle="Titre 2" dataCellStyle="Texte">
+  <autoFilter ref="B4:E120"/>
   <tableColumns count="4">
     <tableColumn id="1" name="heure n°" dataDxfId="3" dataCellStyle="Texte"/>
     <tableColumn id="2" name="Arthur Dherbomez" dataDxfId="2" dataCellStyle="Texte"/>
@@ -839,34 +857,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E96"/>
+  <dimension ref="B1:E120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94:C95"/>
+      <pane ySplit="4" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E100:E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -880,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -894,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -908,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -922,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -936,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -950,7 +968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -964,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -978,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -992,7 +1010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -1006,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -1020,7 +1038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -1034,7 +1052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -1048,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -1062,7 +1080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -1076,7 +1094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -1090,7 +1108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -1104,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -1118,7 +1136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -1146,7 +1164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -1174,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -1188,7 +1206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -1202,7 +1220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -1244,7 +1262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -1258,7 +1276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -1272,7 +1290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -1286,7 +1304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -1300,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -1314,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -1328,7 +1346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -1342,7 +1360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -1356,7 +1374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -1370,7 +1388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>36</v>
       </c>
@@ -1384,7 +1402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>37</v>
       </c>
@@ -1398,7 +1416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>38</v>
       </c>
@@ -1412,7 +1430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>39</v>
       </c>
@@ -1426,7 +1444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>40</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>41</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>42</v>
       </c>
@@ -1468,7 +1486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>43</v>
       </c>
@@ -1482,7 +1500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>44</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>45</v>
       </c>
@@ -1510,7 +1528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>46</v>
       </c>
@@ -1524,7 +1542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>47</v>
       </c>
@@ -1538,7 +1556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>48</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>49</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>50</v>
       </c>
@@ -1580,7 +1598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>51</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>52</v>
       </c>
@@ -1608,7 +1626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>53</v>
       </c>
@@ -1622,7 +1640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>54</v>
       </c>
@@ -1636,7 +1654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>55</v>
       </c>
@@ -1650,7 +1668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>56</v>
       </c>
@@ -1664,7 +1682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>57</v>
       </c>
@@ -1678,7 +1696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>58</v>
       </c>
@@ -1692,7 +1710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>59</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>60</v>
       </c>
@@ -1720,7 +1738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>61</v>
       </c>
@@ -1734,7 +1752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>62</v>
       </c>
@@ -1748,7 +1766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>63</v>
       </c>
@@ -1762,7 +1780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>64</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>65</v>
       </c>
@@ -1790,7 +1808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>66</v>
       </c>
@@ -1804,7 +1822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>67</v>
       </c>
@@ -1818,7 +1836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>68</v>
       </c>
@@ -1832,7 +1850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>69</v>
       </c>
@@ -1840,9 +1858,11 @@
         <v>27</v>
       </c>
       <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E73" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>70</v>
       </c>
@@ -1850,9 +1870,11 @@
         <v>27</v>
       </c>
       <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>71</v>
       </c>
@@ -1860,9 +1882,11 @@
         <v>27</v>
       </c>
       <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E75" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>72</v>
       </c>
@@ -1870,9 +1894,11 @@
         <v>27</v>
       </c>
       <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>73</v>
       </c>
@@ -1880,9 +1906,11 @@
         <v>27</v>
       </c>
       <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>74</v>
       </c>
@@ -1890,9 +1918,11 @@
         <v>27</v>
       </c>
       <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>75</v>
       </c>
@@ -1900,9 +1930,11 @@
         <v>27</v>
       </c>
       <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E79" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>76</v>
       </c>
@@ -1910,9 +1942,11 @@
         <v>27</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>77</v>
       </c>
@@ -1920,9 +1954,11 @@
         <v>27</v>
       </c>
       <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E81" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>78</v>
       </c>
@@ -1930,9 +1966,11 @@
         <v>27</v>
       </c>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E82" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>79</v>
       </c>
@@ -1940,9 +1978,11 @@
         <v>27</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E83" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>80</v>
       </c>
@@ -1950,9 +1990,11 @@
         <v>27</v>
       </c>
       <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E84" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>81</v>
       </c>
@@ -1960,9 +2002,11 @@
         <v>27</v>
       </c>
       <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E85" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>82</v>
       </c>
@@ -1970,9 +2014,11 @@
         <v>28</v>
       </c>
       <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E86" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>83</v>
       </c>
@@ -1980,9 +2026,11 @@
         <v>28</v>
       </c>
       <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E87" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>84</v>
       </c>
@@ -1990,9 +2038,11 @@
         <v>29</v>
       </c>
       <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E88" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>85</v>
       </c>
@@ -2000,9 +2050,11 @@
         <v>29</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E89" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>86</v>
       </c>
@@ -2010,9 +2062,11 @@
         <v>29</v>
       </c>
       <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E90" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>87</v>
       </c>
@@ -2020,9 +2074,11 @@
         <v>30</v>
       </c>
       <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E91" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>88</v>
       </c>
@@ -2030,9 +2086,11 @@
         <v>30</v>
       </c>
       <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E92" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>89</v>
       </c>
@@ -2040,9 +2098,11 @@
         <v>30</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E93" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2">
         <v>90</v>
       </c>
@@ -2050,9 +2110,11 @@
         <v>30</v>
       </c>
       <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E94" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
         <v>91</v>
       </c>
@@ -2060,15 +2122,233 @@
         <v>30</v>
       </c>
       <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E95" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>92</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="E96" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2">
+        <v>93</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
+        <v>94</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2">
+        <v>95</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="2">
+        <v>96</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
+        <v>97</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="2">
+        <v>98</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="2">
+        <v>99</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="2">
+        <v>100</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="2">
+        <v>101</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="2">
+        <v>102</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="2">
+        <v>103</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="2">
+        <v>104</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="2">
+        <v>105</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="2">
+        <v>106</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="2">
+        <v>107</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="2">
+        <v>108</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="2">
+        <v>109</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="2">
+        <v>110</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="2">
+        <v>111</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="2">
+        <v>112</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="2">
+        <v>113</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="2">
+        <v>114</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="2">
+        <v>115</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="2">
+        <v>116</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
     </row>
   </sheetData>
   <dataValidations xWindow="390" yWindow="668" count="3">
